--- a/工具/衍生财务指标.xlsx
+++ b/工具/衍生财务指标.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="估值有关指标" sheetId="1" r:id="rId1"/>
@@ -3753,8 +3753,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3781,14 +3781,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3797,9 +3789,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3814,20 +3833,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3835,36 +3840,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3895,11 +3888,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3912,20 +3912,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3940,25 +3940,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3976,37 +3994,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4024,7 +4036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4036,13 +4084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4054,37 +4114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4096,31 +4126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4131,15 +4137,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4175,18 +4172,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4206,28 +4211,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4237,10 +4243,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4249,137 +4255,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4423,6 +4429,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4745,9 +4752,9 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -4787,7 +4794,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -4871,7 +4878,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
@@ -4927,7 +4934,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
@@ -4997,7 +5004,7 @@
       </c>
     </row>
     <row r="18" ht="27.6" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B18" t="s">
@@ -5053,7 +5060,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B22" t="s">
@@ -5313,11 +5320,11 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -7075,7 +7082,7 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
